--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +474,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-0.1572134146271912</v>
@@ -498,9 +504,9 @@
         <v>-0.5166719322893872</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>-0.2129623811824722</v>
@@ -521,9 +527,9 @@
         <v>-0.359458517662196</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>-0.7127981667682509</v>
@@ -540,10 +546,22 @@
       <c r="F4">
         <v>-0.1464961364797238</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4">
+        <v>0.05440228102773284</v>
+      </c>
+      <c r="H4">
+        <v>-0.4114840973299134</v>
+      </c>
+      <c r="I4">
+        <v>-0.01899261237092109</v>
+      </c>
+      <c r="J4">
+        <v>-0.06854498788710228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.3156206097506351</v>
@@ -570,9 +588,9 @@
         <v>0.6442531788811486</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.4843872608164774</v>
@@ -596,9 +614,9 @@
         <v>0.3286325691305135</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.0264640284257914</v>
@@ -619,9 +637,9 @@
         <v>-0.1557546916859639</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>-0.2601698687043768</v>
@@ -638,10 +656,19 @@
       <c r="F8">
         <v>-0.1822187201117553</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8">
+        <v>0.1348525673985845</v>
+      </c>
+      <c r="H8">
+        <v>0.01017279677448329</v>
+      </c>
+      <c r="I8">
+        <v>-0.03366005793130281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.2008984175074567</v>
@@ -665,9 +692,9 @@
         <v>0.226509810773074</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>-0.4658863783576462</v>
@@ -688,9 +715,9 @@
         <v>0.02561139326561734</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0.3924914849589923</v>
@@ -708,9 +735,9 @@
         <v>0.4914977716232636</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>-0.04955237551618119</v>
@@ -725,9 +752,9 @@
         <v>0.09900628666427128</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.3170712875103397</v>
@@ -739,9 +766,9 @@
         <v>0.1485586621804525</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>-0.1246797706241012</v>
@@ -750,17 +777,17 @@
         <v>-0.1685126253298873</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>-0.0438328547057861</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.7</v>
+      </c>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="E2">
+        <v>1.8</v>
+      </c>
+      <c r="F2">
+        <v>1.968616218514021</v>
+      </c>
+      <c r="G2">
+        <v>-2.1</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>-1.8</v>
+      </c>
+      <c r="J2">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.8</v>
+      </c>
+      <c r="D3">
+        <v>1.968616218514021</v>
+      </c>
+      <c r="E3">
+        <v>-2.1</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>-1.8</v>
+      </c>
+      <c r="H3">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-0.4696221576284057</v>
+      </c>
+      <c r="K3">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.4686162185140212</v>
+      </c>
+      <c r="C4">
+        <v>-3.6</v>
+      </c>
+      <c r="D4">
+        <v>-1.2</v>
+      </c>
+      <c r="E4">
+        <v>-3.3</v>
+      </c>
+      <c r="F4">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="G4">
+        <v>-2.5</v>
+      </c>
+      <c r="H4">
+        <v>-1.969622157628406</v>
+      </c>
+      <c r="I4">
+        <v>-2.2</v>
+      </c>
+      <c r="J4">
+        <v>-2.2</v>
+      </c>
+      <c r="K4">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1.668616218514021</v>
+      </c>
+      <c r="C5">
+        <v>-3.768616218514021</v>
+      </c>
+      <c r="D5">
+        <v>-1.068616218514021</v>
+      </c>
+      <c r="E5">
+        <v>-2.968616218514021</v>
+      </c>
+      <c r="F5">
+        <v>-2.438238376142427</v>
+      </c>
+      <c r="G5">
+        <v>-2.668616218514021</v>
+      </c>
+      <c r="H5">
+        <v>-2.668616218514021</v>
+      </c>
+      <c r="I5">
+        <v>-2.268616218514021</v>
+      </c>
+      <c r="J5">
+        <v>-2.268616218514021</v>
+      </c>
+      <c r="K5">
+        <v>-1.768616218514021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-1.3</v>
+      </c>
+      <c r="D6">
+        <v>-0.7696221576284057</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>-1.4</v>
+      </c>
+      <c r="K6">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1.369622157628406</v>
+      </c>
+      <c r="C7">
+        <v>-1.6</v>
+      </c>
+      <c r="D7">
+        <v>-1.6</v>
+      </c>
+      <c r="E7">
+        <v>-1.2</v>
+      </c>
+      <c r="F7">
+        <v>-1.2</v>
+      </c>
+      <c r="G7">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <v>-1.8</v>
+      </c>
+      <c r="J7">
+        <v>-1.4</v>
+      </c>
+      <c r="K7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.2303778423715943</v>
+      </c>
+      <c r="C8">
+        <v>0.1696221576284056</v>
+      </c>
+      <c r="D8">
+        <v>0.1696221576284058</v>
+      </c>
+      <c r="E8">
+        <v>0.6696221576284057</v>
+      </c>
+      <c r="F8">
+        <v>-0.6303778423715943</v>
+      </c>
+      <c r="G8">
+        <v>-0.4303778423715943</v>
+      </c>
+      <c r="H8">
+        <v>-0.0303778423715943</v>
+      </c>
+      <c r="I8">
+        <v>0.9696221576284058</v>
+      </c>
+      <c r="J8">
+        <v>0.1696221576284057</v>
+      </c>
+      <c r="K8">
+        <v>-0.03037784237159419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>-0.4</v>
+      </c>
+      <c r="E9">
+        <v>-0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>-0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.8000000000000002</v>
+      </c>
+      <c r="C10">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="F10">
+        <v>-1.110223024625157E-16</v>
+      </c>
+      <c r="G10">
+        <v>-0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="I10">
+        <v>-0.6000000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.09999999999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>1.8</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>0.7</v>
+      </c>
+      <c r="K11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>0.09999999999999989</v>
+      </c>
+      <c r="I12">
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F13">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>-0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>-0.4</v>
+      </c>
+      <c r="D14">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="E14">
+        <v>-0.1</v>
+      </c>
+      <c r="F14">
+        <v>-0.2</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="J14">
+        <v>-0.3</v>
+      </c>
+      <c r="K14">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.1</v>
+      </c>
+      <c r="C15">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>-0.7</v>
+      </c>
+      <c r="E15">
+        <v>-1.5</v>
+      </c>
+      <c r="F15">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>-0.4</v>
+      </c>
+      <c r="H15">
+        <v>-0.8</v>
+      </c>
+      <c r="I15">
+        <v>-1.4</v>
+      </c>
+      <c r="J15">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="K15">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="G16">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="J16">
+        <v>-0.1999999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <v>-0.1</v>
+      </c>
+      <c r="E17">
+        <v>-0.7</v>
+      </c>
+      <c r="F17">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="K17">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.3</v>
+      </c>
+      <c r="C18">
+        <v>-0.9</v>
+      </c>
+      <c r="D18">
+        <v>-0.1</v>
+      </c>
+      <c r="E18">
+        <v>-0.2</v>
+      </c>
+      <c r="F18">
+        <v>-0.8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-0.8</v>
+      </c>
+      <c r="I18">
+        <v>-0.9</v>
+      </c>
+      <c r="J18">
+        <v>-0.3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>-0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+      <c r="F19">
+        <v>-0.5</v>
+      </c>
+      <c r="G19">
+        <v>-0.6</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.3</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.7</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>-0.7</v>
+      </c>
+      <c r="E20">
+        <v>-0.8</v>
+      </c>
+      <c r="F20">
+        <v>-0.2</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.7</v>
+      </c>
+      <c r="I20">
+        <v>-0.3</v>
+      </c>
+      <c r="J20">
+        <v>-0.5</v>
+      </c>
+      <c r="K20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.8</v>
+      </c>
+      <c r="F21">
+        <v>1.4</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>0.9</v>
+      </c>
+      <c r="J21">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22">
+        <v>1.4</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>0.9</v>
+      </c>
+      <c r="H22">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.2</v>
+      </c>
+      <c r="K22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.1</v>
+      </c>
+      <c r="I23">
+        <v>1.3</v>
+      </c>
+      <c r="J23">
+        <v>3.3</v>
+      </c>
+      <c r="K23">
+        <v>-1.53040224812923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.9</v>
+      </c>
+      <c r="C24">
+        <v>-0.1</v>
+      </c>
+      <c r="D24">
+        <v>-0.3</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>-0.6</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="I24">
+        <v>2.7</v>
+      </c>
+      <c r="J24">
+        <v>-2.13040224812923</v>
+      </c>
+      <c r="K24">
+        <v>-0.5339050167294337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-0.4</v>
+      </c>
+      <c r="C25">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="E25">
+        <v>-0.9</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>2.4</v>
+      </c>
+      <c r="I25">
+        <v>-2.43040224812923</v>
+      </c>
+      <c r="J25">
+        <v>-0.8339050167294337</v>
+      </c>
+      <c r="K25">
+        <v>-1.597090680270919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1.2</v>
+      </c>
+      <c r="C26">
+        <v>-0.5</v>
+      </c>
+      <c r="D26">
+        <v>-1.5</v>
+      </c>
+      <c r="E26">
+        <v>-0.4</v>
+      </c>
+      <c r="F26">
+        <v>-0.2</v>
+      </c>
+      <c r="G26">
+        <v>1.8</v>
+      </c>
+      <c r="H26">
+        <v>-3.03040224812923</v>
+      </c>
+      <c r="I26">
+        <v>-1.433905016729434</v>
+      </c>
+      <c r="J26">
+        <v>-2.197090680270919</v>
+      </c>
+      <c r="K26">
+        <v>-0.3558302211900248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>-0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>2.8</v>
+      </c>
+      <c r="G27">
+        <v>-2.03040224812923</v>
+      </c>
+      <c r="H27">
+        <v>-0.4339050167294337</v>
+      </c>
+      <c r="I27">
+        <v>-1.197090680270919</v>
+      </c>
+      <c r="J27">
+        <v>0.6441697788099752</v>
+      </c>
+      <c r="K27">
+        <v>-0.4901411037136303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.3</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>-1.83040224812923</v>
+      </c>
+      <c r="G28">
+        <v>-0.2339050167294337</v>
+      </c>
+      <c r="H28">
+        <v>-0.997090680270919</v>
+      </c>
+      <c r="I28">
+        <v>0.8441697788099751</v>
+      </c>
+      <c r="J28">
+        <v>-0.2901411037136303</v>
+      </c>
+      <c r="K28">
+        <v>0.2909814064641099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <v>2.3</v>
+      </c>
+      <c r="E29">
+        <v>-2.53040224812923</v>
+      </c>
+      <c r="F29">
+        <v>-0.9339050167294337</v>
+      </c>
+      <c r="G29">
+        <v>-1.697090680270919</v>
+      </c>
+      <c r="H29">
+        <v>0.1441697788099752</v>
+      </c>
+      <c r="I29">
+        <v>-0.9901411037136303</v>
+      </c>
+      <c r="J29">
+        <v>-0.4090185935358901</v>
+      </c>
+      <c r="K29">
+        <v>-0.1047083765234353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.3</v>
+      </c>
+      <c r="C30">
+        <v>3.3</v>
+      </c>
+      <c r="D30">
+        <v>-1.53040224812923</v>
+      </c>
+      <c r="E30">
+        <v>0.06609498327056629</v>
+      </c>
+      <c r="F30">
+        <v>-0.6970906802709189</v>
+      </c>
+      <c r="G30">
+        <v>1.144169778809975</v>
+      </c>
+      <c r="H30">
+        <v>0.009858896286369712</v>
+      </c>
+      <c r="I30">
+        <v>0.5909814064641099</v>
+      </c>
+      <c r="J30">
+        <v>0.8952916234765647</v>
+      </c>
+      <c r="K30">
+        <v>0.7380782088493735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.2</v>
+      </c>
+      <c r="C31">
+        <v>-2.63040224812923</v>
+      </c>
+      <c r="D31">
+        <v>-1.033905016729434</v>
+      </c>
+      <c r="E31">
+        <v>-1.797090680270919</v>
+      </c>
+      <c r="F31">
+        <v>0.04416977880997519</v>
+      </c>
+      <c r="G31">
+        <v>-1.09014110371363</v>
+      </c>
+      <c r="H31">
+        <v>-0.5090185935358901</v>
+      </c>
+      <c r="I31">
+        <v>-0.2047083765234353</v>
+      </c>
+      <c r="J31">
+        <v>-0.3619217911506265</v>
+      </c>
+      <c r="K31">
+        <v>-0.5748841723330986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-2.83040224812923</v>
+      </c>
+      <c r="C32">
+        <v>-1.233905016729434</v>
+      </c>
+      <c r="D32">
+        <v>-1.997090680270919</v>
+      </c>
+      <c r="E32">
+        <v>-0.1558302211900249</v>
+      </c>
+      <c r="F32">
+        <v>-1.29014110371363</v>
+      </c>
+      <c r="G32">
+        <v>-0.7090185935358901</v>
+      </c>
+      <c r="H32">
+        <v>-0.4047083765234353</v>
+      </c>
+      <c r="I32">
+        <v>-0.5619217911506266</v>
+      </c>
+      <c r="J32">
+        <v>-0.7748841723330987</v>
+      </c>
+      <c r="K32">
+        <v>-1.48768233910135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1.596497231399796</v>
+      </c>
+      <c r="C33">
+        <v>0.8333115678583112</v>
+      </c>
+      <c r="D33">
+        <v>2.674572026939205</v>
+      </c>
+      <c r="E33">
+        <v>1.5402611444156</v>
+      </c>
+      <c r="F33">
+        <v>2.12138365459334</v>
+      </c>
+      <c r="G33">
+        <v>2.425693871605795</v>
+      </c>
+      <c r="H33">
+        <v>2.268480456978604</v>
+      </c>
+      <c r="I33">
+        <v>2.055518075796131</v>
+      </c>
+      <c r="J33">
+        <v>1.342719909027881</v>
+      </c>
+      <c r="K33">
+        <v>1.658340518778516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-0.7631856635414852</v>
+      </c>
+      <c r="C34">
+        <v>1.078074795539409</v>
+      </c>
+      <c r="D34">
+        <v>-0.05623608698419658</v>
+      </c>
+      <c r="E34">
+        <v>0.5248864231935436</v>
+      </c>
+      <c r="F34">
+        <v>0.8291966402059985</v>
+      </c>
+      <c r="G34">
+        <v>0.6719832255788072</v>
+      </c>
+      <c r="H34">
+        <v>0.4590208443963351</v>
+      </c>
+      <c r="I34">
+        <v>-0.2537773223719159</v>
+      </c>
+      <c r="J34">
+        <v>0.06184328737871919</v>
+      </c>
+      <c r="K34">
+        <v>0.5462305481951966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1.841260459080894</v>
+      </c>
+      <c r="C35">
+        <v>0.7069495765572886</v>
+      </c>
+      <c r="D35">
+        <v>1.288072086735029</v>
+      </c>
+      <c r="E35">
+        <v>1.592382303747484</v>
+      </c>
+      <c r="F35">
+        <v>1.435168889120293</v>
+      </c>
+      <c r="G35">
+        <v>1.22220650793782</v>
+      </c>
+      <c r="H35">
+        <v>0.5094083411695693</v>
+      </c>
+      <c r="I35">
+        <v>0.8250289509202045</v>
+      </c>
+      <c r="J35">
+        <v>1.309416211736682</v>
+      </c>
+      <c r="K35">
+        <v>1.335880240162473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.134310882523605</v>
+      </c>
+      <c r="C36">
+        <v>-0.5531883723458653</v>
+      </c>
+      <c r="D36">
+        <v>-0.2488781553334105</v>
+      </c>
+      <c r="E36">
+        <v>-0.4060915699606017</v>
+      </c>
+      <c r="F36">
+        <v>-0.6190539511430738</v>
+      </c>
+      <c r="G36">
+        <v>-1.331852117911325</v>
+      </c>
+      <c r="H36">
+        <v>-1.01623150816069</v>
+      </c>
+      <c r="I36">
+        <v>-0.5318442473442122</v>
+      </c>
+      <c r="J36">
+        <v>-0.5053802189184209</v>
+      </c>
+      <c r="K36">
+        <v>-0.7655500876227976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.5811225101777402</v>
+      </c>
+      <c r="C37">
+        <v>0.8854327271901949</v>
+      </c>
+      <c r="D37">
+        <v>0.7282193125630038</v>
+      </c>
+      <c r="E37">
+        <v>0.5152569313805316</v>
+      </c>
+      <c r="F37">
+        <v>-0.1975412353877193</v>
+      </c>
+      <c r="G37">
+        <v>0.1180793743629158</v>
+      </c>
+      <c r="H37">
+        <v>0.6024666351793933</v>
+      </c>
+      <c r="I37">
+        <v>0.6289306636051846</v>
+      </c>
+      <c r="J37">
+        <v>0.3687607949008078</v>
+      </c>
+      <c r="K37">
+        <v>0.5696592124082644</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.3043102170124549</v>
+      </c>
+      <c r="C38">
+        <v>0.1470968023852636</v>
+      </c>
+      <c r="D38">
+        <v>-0.06586557879720856</v>
+      </c>
+      <c r="E38">
+        <v>-0.7786637455654595</v>
+      </c>
+      <c r="F38">
+        <v>-0.4630431358148244</v>
+      </c>
+      <c r="G38">
+        <v>0.02134412500165303</v>
+      </c>
+      <c r="H38">
+        <v>0.04780815342744443</v>
+      </c>
+      <c r="I38">
+        <v>-0.2123617152769324</v>
+      </c>
+      <c r="J38">
+        <v>-0.01146329776947572</v>
+      </c>
+      <c r="K38">
+        <v>-0.477349676127122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.1572134146271912</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.3701757958096634</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>-1.082973962577914</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>-0.7673533528272792</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-0.2829660920108018</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-0.2565020635850104</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.5166719322893872</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>-0.3157735147819306</v>
+      </c>
+      <c r="J39">
+        <v>-0.7816598931395768</v>
+      </c>
+      <c r="K39">
+        <v>-0.3891684081805845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.2129623811824722</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>-0.925760547950723</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>-0.6101399382000881</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.1257526773836106</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>-0.09928864895781919</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.359458517662196</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>-0.1585601001547393</v>
+      </c>
+      <c r="I40">
+        <v>-0.6244464785123855</v>
+      </c>
+      <c r="J40">
+        <v>-0.2319549935533933</v>
+      </c>
+      <c r="K40">
+        <v>-0.2815073690695745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.7127981667682509</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-0.3971775570176158</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.08720970379886159</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.113673732224653</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>-0.1464961364797238</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.05440228102773284</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.4114840973299134</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>-0.01899261237092109</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.06854498788710228</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.2485262996232375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.3156206097506351</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.8000078705671125</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.8264718989929039</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.5663020302885271</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>0.7672004477959837</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.3013140694383375</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.6938055543973298</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.6442531788811486</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.9613244663914884</v>
+      </c>
+      <c r="K42">
+        <v>0.8366446957673872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4843872608164774</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.5108512892422689</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.250681420537892</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.4515798380453487</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.01430654031229756</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.3781849446466947</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.3286325691305135</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.6457038566408533</v>
+      </c>
+      <c r="J43">
+        <v>0.5210240860167521</v>
+      </c>
+      <c r="K43">
+        <v>0.477191231310966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.0264640284257914</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>-0.2337058402785854</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.03280742277112875</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.498693801128775</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>-0.1062023161697827</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.1557546916859639</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.1613165958243759</v>
+      </c>
+      <c r="I44">
+        <v>0.0366368252002747</v>
+      </c>
+      <c r="J44">
+        <v>-0.007196029505511403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.2601698687043768</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.05927145119692015</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.5251578295545664</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.1326663445955741</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.1822187201117553</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.1348525673985845</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.01017279677448329</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.03366005793130281</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.2008984175074567</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.2649879608501896</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.1275035241088027</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.07795114859262153</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.3950224361029613</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.2703426654788601</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.226509810773074</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.4658863783576462</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.07339489339865393</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1229472689148351</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.1941240185955047</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.06944424797140344</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>0.02561139326561734</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.3924914849589923</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>0.3429391094428111</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.6600103969531509</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.5353306263290497</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.4914977716232636</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.04955237551618119</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.2675189119941586</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>0.1428391413700574</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>0.09900628666427128</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.3170712875103397</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1923915168862386</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.1485586621804525</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.1246797706241012</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.1685126253298873</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.0438328547057861</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.7</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.968616218514021</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-2.1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-1.8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.9000000000000001</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.7</v>
+      </c>
+      <c r="C3">
         <v>1.5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.968616218514021</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-2.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9000000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.4696221576284057</v>
-      </c>
-      <c r="K3">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
         <v>0.4686162185140212</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-3.6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-3.3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.5999999999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-2.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.969622157628406</v>
-      </c>
-      <c r="I4">
-        <v>-2.2</v>
       </c>
       <c r="J4">
         <v>-2.2</v>
       </c>
       <c r="K4">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-4.068616218514022</v>
+      </c>
+      <c r="C5">
         <v>-1.668616218514021</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-3.768616218514021</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.068616218514021</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.968616218514021</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.438238376142427</v>
-      </c>
-      <c r="G5">
-        <v>-2.668616218514021</v>
       </c>
       <c r="H5">
         <v>-2.668616218514021</v>
       </c>
       <c r="I5">
-        <v>-2.268616218514021</v>
+        <v>-2.668616218514021</v>
       </c>
       <c r="J5">
         <v>-2.268616218514021</v>
       </c>
       <c r="K5">
-        <v>-1.768616218514021</v>
+        <v>-2.268616218514021</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-2.1</v>
+      </c>
+      <c r="C6">
         <v>0.6000000000000001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.7696221576284057</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.5999999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1.4</v>
-      </c>
-      <c r="K6">
-        <v>-1.2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.9</v>
+      </c>
+      <c r="C7">
         <v>-1.369622157628406</v>
-      </c>
-      <c r="C7">
-        <v>-1.6</v>
       </c>
       <c r="D7">
         <v>-1.6</v>
       </c>
       <c r="E7">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="F7">
         <v>-1.2</v>
       </c>
       <c r="G7">
+        <v>-1.2</v>
+      </c>
+      <c r="H7">
         <v>-0.7000000000000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.4</v>
-      </c>
-      <c r="K7">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -813,31 +813,31 @@
         <v>-0.2303778423715943</v>
       </c>
       <c r="C8">
+        <v>-0.2303778423715943</v>
+      </c>
+      <c r="D8">
         <v>0.1696221576284056</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1696221576284058</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.6696221576284057</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.6303778423715943</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.4303778423715943</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.0303778423715943</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.9696221576284058</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.1696221576284057</v>
-      </c>
-      <c r="K8">
-        <v>-0.03037784237159419</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="C9">
         <v>0.4000000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2000000000000001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.9</v>
-      </c>
-      <c r="K9">
-        <v>-0.2000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C10">
         <v>-0.8000000000000002</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.2000000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.7999999999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.4999999999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.6000000000000002</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="K10">
-        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="C11">
         <v>0.6000000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.8</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.6000000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.7</v>
-      </c>
-      <c r="K11">
-        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.110223024625157E-16</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.4000000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.09999999999999989</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.6</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.5</v>
-      </c>
-      <c r="K12">
-        <v>-0.3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.1999999999999999</v>
+      </c>
+      <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.09999999999999998</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.1000000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-1.1</v>
+      </c>
+      <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.09999999999999998</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.3</v>
-      </c>
-      <c r="K14">
-        <v>-0.9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.9</v>
+      </c>
+      <c r="C15">
         <v>-1.1</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.7</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1.5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-1.4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.6000000000000001</v>
-      </c>
-      <c r="K15">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="C16">
         <v>0.4000000000000001</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.3999999999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.6000000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.7000000000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3000000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.2999999999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.5000000000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.4000000000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.1999999999999999</v>
-      </c>
-      <c r="K16">
-        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.8</v>
+      </c>
+      <c r="C17">
         <v>0.2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.1</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.09999999999999998</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.6000000000000001</v>
-      </c>
-      <c r="K17">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C18">
         <v>-0.3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.9</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.8</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.9</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.3</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.6</v>
+      </c>
+      <c r="C19">
         <v>0.2</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.6</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.3</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9</v>
-      </c>
-      <c r="K19">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="C20">
         <v>-0.7</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.7</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.7</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.3</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.5</v>
-      </c>
-      <c r="K20">
-        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.09999999999999998</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.8</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.9</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.2</v>
-      </c>
-      <c r="K22">
-        <v>3.2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
         <v>0.9</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.5</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.3</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.1</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.3</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3.3</v>
-      </c>
-      <c r="K23">
-        <v>-1.53040224812923</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.3</v>
+      </c>
+      <c r="C24">
         <v>0.9</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-0.1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.3</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.7000000000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.7</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-2.13040224812923</v>
-      </c>
-      <c r="K24">
-        <v>-0.5339050167294337</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
         <v>-0.4</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.09999999999999998</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.9</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.4</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-2.43040224812923</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.8339050167294337</v>
-      </c>
-      <c r="K25">
-        <v>-1.597090680270919</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
         <v>-1.2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.5</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-1.5</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.4</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-0.2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.8</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-3.03040224812923</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-1.433905016729434</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-2.197090680270919</v>
-      </c>
-      <c r="K26">
-        <v>-0.3558302211900248</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.2</v>
+      </c>
+      <c r="C27">
         <v>0.5</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.6</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.8</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.8</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-2.03040224812923</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.4339050167294337</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.197090680270919</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.6441697788099752</v>
-      </c>
-      <c r="K27">
-        <v>-0.4901411037136303</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.7</v>
+      </c>
+      <c r="C28">
         <v>-0.3</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.8</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-1.83040224812923</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.2339050167294337</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.997090680270919</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.8441697788099751</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.2901411037136303</v>
-      </c>
-      <c r="K28">
-        <v>0.2909814064641099</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
         <v>0.09999999999999998</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.3</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.3</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-2.53040224812923</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.9339050167294337</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-1.697090680270919</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1441697788099752</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.9901411037136303</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.4090185935358901</v>
-      </c>
-      <c r="K29">
-        <v>-0.1047083765234353</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>1.1</v>
+      </c>
+      <c r="C30">
         <v>1.3</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3.3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.53040224812923</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.06609498327056629</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.6970906802709189</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.144169778809975</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.009858896286369712</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.5909814064641099</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.8952916234765647</v>
-      </c>
-      <c r="K30">
-        <v>0.7380782088493735</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="C31">
         <v>2.2</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-2.63040224812923</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-1.033905016729434</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-1.797090680270919</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.04416977880997519</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-1.09014110371363</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.5090185935358901</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.2047083765234353</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.3619217911506265</v>
-      </c>
-      <c r="K31">
-        <v>-0.5748841723330986</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>-2.83040224812923</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-1.233905016729434</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1.997090680270919</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-0.1558302211900249</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-1.29014110371363</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.7090185935358901</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.4047083765234353</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.5619217911506266</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.7748841723330987</v>
-      </c>
-      <c r="K32">
-        <v>-1.48768233910135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>1.596497231399796</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.8333115678583112</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.674572026939205</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.5402611444156</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2.12138365459334</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2.425693871605795</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.268480456978604</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.055518075796131</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.342719909027881</v>
-      </c>
-      <c r="K33">
-        <v>1.658340518778516</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>-0.7631856635414852</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.078074795539409</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.05623608698419658</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.5248864231935436</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.8291966402059985</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.6719832255788072</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.4590208443963351</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.2537773223719159</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.06184328737871919</v>
-      </c>
-      <c r="K34">
-        <v>0.5462305481951966</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>1.841260459080894</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.7069495765572886</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.288072086735029</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.592382303747484</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.435168889120293</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1.22220650793782</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.5094083411695693</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.8250289509202045</v>
-      </c>
-      <c r="J35">
-        <v>1.309416211736682</v>
-      </c>
-      <c r="K35">
-        <v>1.335880240162473</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-1.134310882523605</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.5531883723458653</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.2488781553334105</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.4060915699606017</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.6190539511430738</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-1.331852117911325</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-1.01623150816069</v>
-      </c>
-      <c r="I36">
-        <v>-0.5318442473442122</v>
-      </c>
-      <c r="J36">
-        <v>-0.5053802189184209</v>
-      </c>
-      <c r="K36">
-        <v>-0.7655500876227976</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0.5811225101777402</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.8854327271901949</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.7282193125630038</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.5152569313805316</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.1975412353877193</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.1180793743629158</v>
-      </c>
-      <c r="H37">
-        <v>0.6024666351793933</v>
-      </c>
-      <c r="I37">
-        <v>0.6289306636051846</v>
-      </c>
-      <c r="J37">
-        <v>0.3687607949008078</v>
-      </c>
-      <c r="K37">
-        <v>0.5696592124082644</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.3043102170124549</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1470968023852636</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.06586557879720856</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.7786637455654595</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.4630431358148244</v>
-      </c>
-      <c r="G38">
-        <v>0.02134412500165303</v>
-      </c>
-      <c r="H38">
-        <v>0.04780815342744443</v>
-      </c>
-      <c r="I38">
-        <v>-0.2123617152769324</v>
-      </c>
-      <c r="J38">
-        <v>-0.01146329776947572</v>
-      </c>
-      <c r="K38">
-        <v>-0.477349676127122</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>-0.1572134146271912</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.3701757958096634</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-1.082973962577914</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.7673533528272792</v>
-      </c>
-      <c r="F39">
-        <v>-0.2829660920108018</v>
-      </c>
-      <c r="G39">
-        <v>-0.2565020635850104</v>
-      </c>
-      <c r="H39">
-        <v>-0.5166719322893872</v>
-      </c>
-      <c r="I39">
-        <v>-0.3157735147819306</v>
-      </c>
-      <c r="J39">
-        <v>-0.7816598931395768</v>
-      </c>
-      <c r="K39">
-        <v>-0.3891684081805845</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>-0.2129623811824722</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.925760547950723</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.6101399382000881</v>
-      </c>
-      <c r="E40">
-        <v>-0.1257526773836106</v>
-      </c>
-      <c r="F40">
-        <v>-0.09928864895781919</v>
-      </c>
-      <c r="G40">
-        <v>-0.359458517662196</v>
-      </c>
-      <c r="H40">
-        <v>-0.1585601001547393</v>
-      </c>
-      <c r="I40">
-        <v>-0.6244464785123855</v>
-      </c>
-      <c r="J40">
-        <v>-0.2319549935533933</v>
-      </c>
-      <c r="K40">
-        <v>-0.2815073690695745</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>-0.7127981667682509</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.3971775570176158</v>
-      </c>
-      <c r="D41">
-        <v>0.08720970379886159</v>
-      </c>
-      <c r="E41">
-        <v>0.113673732224653</v>
-      </c>
-      <c r="F41">
-        <v>-0.1464961364797238</v>
-      </c>
-      <c r="G41">
-        <v>0.05440228102773284</v>
-      </c>
-      <c r="H41">
-        <v>-0.4114840973299134</v>
-      </c>
-      <c r="I41">
-        <v>-0.01899261237092109</v>
-      </c>
-      <c r="J41">
-        <v>-0.06854498788710228</v>
-      </c>
-      <c r="K41">
-        <v>0.2485262996232375</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0.3156206097506351</v>
-      </c>
-      <c r="C42">
-        <v>0.8000078705671125</v>
-      </c>
-      <c r="D42">
-        <v>0.8264718989929039</v>
-      </c>
-      <c r="E42">
-        <v>0.5663020302885271</v>
-      </c>
-      <c r="F42">
-        <v>0.7672004477959837</v>
-      </c>
-      <c r="G42">
-        <v>0.3013140694383375</v>
-      </c>
-      <c r="H42">
-        <v>0.6938055543973298</v>
-      </c>
-      <c r="I42">
-        <v>0.6442531788811486</v>
-      </c>
-      <c r="J42">
-        <v>0.9613244663914884</v>
-      </c>
-      <c r="K42">
-        <v>0.8366446957673872</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4843872608164774</v>
-      </c>
-      <c r="C43">
-        <v>0.5108512892422689</v>
-      </c>
-      <c r="D43">
-        <v>0.250681420537892</v>
-      </c>
-      <c r="E43">
-        <v>0.4515798380453487</v>
-      </c>
-      <c r="F43">
-        <v>-0.01430654031229756</v>
-      </c>
-      <c r="G43">
-        <v>0.3781849446466947</v>
-      </c>
-      <c r="H43">
-        <v>0.3286325691305135</v>
-      </c>
-      <c r="I43">
-        <v>0.6457038566408533</v>
-      </c>
-      <c r="J43">
-        <v>0.5210240860167521</v>
-      </c>
-      <c r="K43">
-        <v>0.477191231310966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.0264640284257914</v>
-      </c>
-      <c r="C44">
-        <v>-0.2337058402785854</v>
-      </c>
-      <c r="D44">
-        <v>-0.03280742277112875</v>
-      </c>
-      <c r="E44">
-        <v>-0.498693801128775</v>
-      </c>
-      <c r="F44">
-        <v>-0.1062023161697827</v>
-      </c>
-      <c r="G44">
-        <v>-0.1557546916859639</v>
-      </c>
-      <c r="H44">
-        <v>0.1613165958243759</v>
-      </c>
-      <c r="I44">
-        <v>0.0366368252002747</v>
-      </c>
-      <c r="J44">
-        <v>-0.007196029505511403</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.2601698687043768</v>
-      </c>
-      <c r="C45">
-        <v>-0.05927145119692015</v>
-      </c>
-      <c r="D45">
-        <v>-0.5251578295545664</v>
-      </c>
-      <c r="E45">
-        <v>-0.1326663445955741</v>
-      </c>
-      <c r="F45">
-        <v>-0.1822187201117553</v>
-      </c>
-      <c r="G45">
-        <v>0.1348525673985845</v>
-      </c>
-      <c r="H45">
-        <v>0.01017279677448329</v>
-      </c>
-      <c r="I45">
-        <v>-0.03366005793130281</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.2008984175074567</v>
-      </c>
-      <c r="C46">
-        <v>-0.2649879608501896</v>
-      </c>
-      <c r="D46">
-        <v>0.1275035241088027</v>
-      </c>
-      <c r="E46">
-        <v>0.07795114859262153</v>
-      </c>
-      <c r="F46">
-        <v>0.3950224361029613</v>
-      </c>
-      <c r="G46">
-        <v>0.2703426654788601</v>
-      </c>
-      <c r="H46">
-        <v>0.226509810773074</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.4658863783576462</v>
-      </c>
-      <c r="C47">
-        <v>-0.07339489339865393</v>
-      </c>
-      <c r="D47">
-        <v>-0.1229472689148351</v>
-      </c>
-      <c r="E47">
-        <v>0.1941240185955047</v>
-      </c>
-      <c r="F47">
-        <v>0.06944424797140344</v>
-      </c>
-      <c r="G47">
-        <v>0.02561139326561734</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.3924914849589923</v>
-      </c>
-      <c r="C48">
-        <v>0.3429391094428111</v>
-      </c>
-      <c r="D48">
-        <v>0.6600103969531509</v>
-      </c>
-      <c r="E48">
-        <v>0.5353306263290497</v>
-      </c>
-      <c r="F48">
-        <v>0.4914977716232636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.04955237551618119</v>
-      </c>
-      <c r="C49">
-        <v>0.2675189119941586</v>
-      </c>
-      <c r="D49">
-        <v>0.1428391413700574</v>
-      </c>
-      <c r="E49">
-        <v>0.09900628666427128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.3170712875103397</v>
-      </c>
-      <c r="C50">
-        <v>0.1923915168862386</v>
-      </c>
-      <c r="D50">
-        <v>0.1485586621804525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.1246797706241012</v>
-      </c>
-      <c r="C51">
-        <v>-0.1685126253298873</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.0438328547057861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>2.7</v>
       </c>
       <c r="K24">
-        <v>-2.13040224812923</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>2.4</v>
       </c>
       <c r="J25">
-        <v>-2.43040224812923</v>
+        <v>-4.3</v>
       </c>
       <c r="K25">
-        <v>-0.8339050167294337</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>1.8</v>
       </c>
       <c r="I26">
-        <v>-3.03040224812923</v>
+        <v>-4.9</v>
       </c>
       <c r="J26">
-        <v>-1.433905016729434</v>
+        <v>-1.6</v>
       </c>
       <c r="K26">
-        <v>-2.197090680270919</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>2.8</v>
       </c>
       <c r="H27">
-        <v>-2.03040224812923</v>
+        <v>-3.9</v>
       </c>
       <c r="I27">
-        <v>-0.4339050167294337</v>
+        <v>-0.6</v>
       </c>
       <c r="J27">
-        <v>-1.197090680270919</v>
+        <v>0.6</v>
       </c>
       <c r="K27">
-        <v>0.6441697788099752</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>-1.83040224812923</v>
+        <v>-3.7</v>
       </c>
       <c r="H28">
-        <v>-0.2339050167294337</v>
+        <v>-0.4</v>
       </c>
       <c r="I28">
-        <v>-0.997090680270919</v>
+        <v>0.8</v>
       </c>
       <c r="J28">
-        <v>0.8441697788099751</v>
+        <v>0.8</v>
       </c>
       <c r="K28">
-        <v>-0.2901411037136303</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>2.3</v>
       </c>
       <c r="F29">
-        <v>-2.53040224812923</v>
+        <v>-4.4</v>
       </c>
       <c r="G29">
-        <v>-0.9339050167294337</v>
+        <v>-1.1</v>
       </c>
       <c r="H29">
-        <v>-1.697090680270919</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="I29">
-        <v>0.1441697788099752</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J29">
-        <v>-0.9901411037136303</v>
+        <v>-0.3</v>
       </c>
       <c r="K29">
-        <v>-0.4090185935358901</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>3.3</v>
       </c>
       <c r="E30">
-        <v>-1.53040224812923</v>
+        <v>-3.4</v>
       </c>
       <c r="F30">
-        <v>0.06609498327056629</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G30">
-        <v>-0.6970906802709189</v>
+        <v>1.1</v>
       </c>
       <c r="H30">
-        <v>1.144169778809975</v>
+        <v>1.1</v>
       </c>
       <c r="I30">
-        <v>0.009858896286369712</v>
+        <v>0.7</v>
       </c>
       <c r="J30">
-        <v>0.5909814064641099</v>
+        <v>0.3</v>
       </c>
       <c r="K30">
-        <v>0.8952916234765647</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>2.2</v>
       </c>
       <c r="D31">
-        <v>-2.63040224812923</v>
+        <v>-4.5</v>
       </c>
       <c r="E31">
-        <v>-1.033905016729434</v>
+        <v>-1.2</v>
       </c>
       <c r="F31">
-        <v>-1.797090680270919</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.04416977880997519</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-1.09014110371363</v>
+        <v>-0.4</v>
       </c>
       <c r="I31">
-        <v>-0.5090185935358901</v>
+        <v>-0.8</v>
       </c>
       <c r="J31">
-        <v>-0.2047083765234353</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K31">
-        <v>-0.3619217911506265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>-2.83040224812923</v>
+        <v>-4.7</v>
       </c>
       <c r="D32">
-        <v>-1.233905016729434</v>
+        <v>-1.4</v>
       </c>
       <c r="E32">
-        <v>-1.997090680270919</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="F32">
-        <v>-0.1558302211900249</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="G32">
-        <v>-1.29014110371363</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="H32">
-        <v>-0.7090185935358901</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>-0.4047083765234353</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="J32">
-        <v>-0.5619217911506266</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="K32">
-        <v>-0.7748841723330987</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-6.699999999999999</v>
       </c>
       <c r="C33">
-        <v>1.596497231399796</v>
+        <v>-3.4</v>
       </c>
       <c r="D33">
-        <v>0.8333115678583112</v>
+        <v>-2.2</v>
       </c>
       <c r="E33">
-        <v>2.674572026939205</v>
+        <v>-2.2</v>
       </c>
       <c r="F33">
-        <v>1.5402611444156</v>
+        <v>-2.6</v>
       </c>
       <c r="G33">
-        <v>2.12138365459334</v>
+        <v>-3</v>
       </c>
       <c r="H33">
-        <v>2.425693871605795</v>
+        <v>-1.4</v>
       </c>
       <c r="I33">
-        <v>2.268480456978604</v>
+        <v>-2.2</v>
       </c>
       <c r="J33">
-        <v>2.055518075796131</v>
+        <v>-2.7</v>
       </c>
       <c r="K33">
-        <v>1.342719909027881</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C34">
-        <v>-0.7631856635414852</v>
+        <v>4.5</v>
       </c>
       <c r="D34">
-        <v>1.078074795539409</v>
+        <v>4.5</v>
       </c>
       <c r="E34">
-        <v>-0.05623608698419658</v>
+        <v>4.1</v>
       </c>
       <c r="F34">
-        <v>0.5248864231935436</v>
+        <v>3.7</v>
       </c>
       <c r="G34">
-        <v>0.8291966402059985</v>
+        <v>5.3</v>
       </c>
       <c r="H34">
-        <v>0.6719832255788072</v>
+        <v>4.5</v>
       </c>
       <c r="I34">
-        <v>0.4590208443963351</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>-0.2537773223719159</v>
+        <v>3.8</v>
       </c>
       <c r="K34">
-        <v>0.06184328737871919</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C35">
-        <v>1.841260459080894</v>
+        <v>1.2</v>
       </c>
       <c r="D35">
-        <v>0.7069495765572886</v>
+        <v>0.8</v>
       </c>
       <c r="E35">
-        <v>1.288072086735029</v>
+        <v>0.4</v>
       </c>
       <c r="F35">
-        <v>1.592382303747484</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1.435168889120293</v>
+        <v>1.2</v>
       </c>
       <c r="H35">
-        <v>1.22220650793782</v>
+        <v>0.7</v>
       </c>
       <c r="I35">
-        <v>0.5094083411695693</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
-        <v>0.8250289509202045</v>
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="K35">
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,25 +1793,31 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-1.134310882523605</v>
+        <v>-0.4</v>
       </c>
       <c r="D36">
-        <v>-0.5531883723458653</v>
+        <v>-0.8</v>
       </c>
       <c r="E36">
-        <v>-0.2488781553334105</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F36">
-        <v>-0.4060915699606017</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-0.6190539511430738</v>
+        <v>-0.5</v>
       </c>
       <c r="H36">
-        <v>-1.331852117911325</v>
+        <v>-0.7</v>
       </c>
       <c r="I36">
-        <v>-1.01623150816069</v>
+        <v>-1.3</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-0.4</v>
+      </c>
+      <c r="C37">
+        <v>-0.8</v>
+      </c>
+      <c r="D37">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="C37">
-        <v>0.5811225101777402</v>
-      </c>
-      <c r="D37">
-        <v>0.8854327271901949</v>
-      </c>
-      <c r="E37">
-        <v>0.7282193125630038</v>
-      </c>
       <c r="F37">
-        <v>0.5152569313805316</v>
+        <v>-0.5</v>
       </c>
       <c r="G37">
-        <v>-0.1975412353877193</v>
+        <v>-0.7</v>
       </c>
       <c r="H37">
-        <v>0.1180793743629158</v>
+        <v>-1.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>-0.8</v>
+      </c>
+      <c r="K37">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C38">
-        <v>0.3043102170124549</v>
+        <v>1.2</v>
       </c>
       <c r="D38">
-        <v>0.1470968023852636</v>
+        <v>0.4</v>
       </c>
       <c r="E38">
-        <v>-0.06586557879720856</v>
+        <v>-0.1</v>
       </c>
       <c r="F38">
-        <v>-0.7786637455654595</v>
+        <v>-0.3</v>
       </c>
       <c r="G38">
-        <v>-0.4630431358148244</v>
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>-0.4</v>
+      </c>
+      <c r="J38">
+        <v>-0.2</v>
+      </c>
+      <c r="K38">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>1.6</v>
+      </c>
+      <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
+        <v>0.3</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>-0.4999999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.8</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="C39">
-        <v>-0.1572134146271912</v>
-      </c>
-      <c r="D39">
-        <v>-0.3701757958096634</v>
-      </c>
-      <c r="E39">
-        <v>-1.082973962577914</v>
-      </c>
-      <c r="F39">
-        <v>-0.7673533528272792</v>
+      <c r="I39">
+        <v>0.2</v>
+      </c>
+      <c r="J39">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="K39">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="C40">
-        <v>-0.2129623811824722</v>
+        <v>-1.3</v>
       </c>
       <c r="D40">
-        <v>-0.925760547950723</v>
+        <v>-1.5</v>
       </c>
       <c r="E40">
-        <v>-0.6101399382000881</v>
+        <v>-2.1</v>
+      </c>
+      <c r="F40">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="G40">
+        <v>-1.6</v>
+      </c>
+      <c r="H40">
+        <v>-1.4</v>
+      </c>
+      <c r="I40">
+        <v>-1.7</v>
+      </c>
+      <c r="J40">
+        <v>-1.3</v>
+      </c>
+      <c r="K40">
+        <v>-0.4999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.5</v>
+      </c>
+      <c r="C41">
+        <v>-0.7</v>
+      </c>
+      <c r="D41">
+        <v>-1.3</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="C41">
-        <v>-0.7127981667682509</v>
-      </c>
-      <c r="D41">
-        <v>-0.3971775570176158</v>
+      <c r="F41">
+        <v>-0.8</v>
+      </c>
+      <c r="G41">
+        <v>-0.6</v>
+      </c>
+      <c r="H41">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="I41">
+        <v>-0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>-0.2</v>
+      </c>
+      <c r="C42">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>-0.3</v>
+      </c>
+      <c r="F42">
+        <v>-0.1</v>
+      </c>
+      <c r="G42">
+        <v>-0.4</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="C42">
-        <v>0.3156206097506351</v>
+      <c r="I42">
+        <v>0.8</v>
+      </c>
+      <c r="J42">
+        <v>1.1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.6</v>
+      </c>
+      <c r="C43">
+        <v>0.7</v>
+      </c>
+      <c r="D43">
+        <v>-0.1</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>-0.2</v>
+      </c>
+      <c r="G43">
+        <v>0.2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1.3</v>
+      </c>
+      <c r="J43">
+        <v>-0.8</v>
+      </c>
+      <c r="K43">
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>1.3</v>
+      </c>
+      <c r="C44">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.7</v>
+      </c>
+      <c r="E44">
+        <v>0.4</v>
+      </c>
+      <c r="F44">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="G44">
+        <v>1.6</v>
+      </c>
+      <c r="H44">
+        <v>1.9</v>
+      </c>
+      <c r="I44">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="J44">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.8</v>
+      </c>
+      <c r="C45">
+        <v>-0.6</v>
+      </c>
+      <c r="D45">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="E45">
+        <v>-0.5</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>0.6</v>
+      </c>
+      <c r="H45">
+        <v>-1.5</v>
+      </c>
+      <c r="I45">
+        <v>0.09999999999999998</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.2</v>
+      </c>
+      <c r="C46">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="D46">
+        <v>0.3</v>
+      </c>
+      <c r="E46">
+        <v>1.1</v>
+      </c>
+      <c r="F46">
+        <v>1.4</v>
+      </c>
+      <c r="G46">
+        <v>-0.7</v>
+      </c>
+      <c r="H46">
+        <v>0.8999999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.3</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>0.9</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47">
+        <v>-0.9</v>
+      </c>
+      <c r="G47">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.4</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
+      </c>
+      <c r="D48">
+        <v>1.5</v>
+      </c>
+      <c r="E48">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.8</v>
+      </c>
+      <c r="C49">
+        <v>1.1</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="C50">
+        <v>-1.8</v>
+      </c>
+      <c r="D50">
+        <v>-0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-2.1</v>
+      </c>
+      <c r="C51">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>1.8</v>
       </c>
-      <c r="G2">
-        <v>1.968616218514021</v>
-      </c>
-      <c r="H2">
-        <v>-2.1</v>
-      </c>
-      <c r="I2">
-        <v>0.3</v>
-      </c>
-      <c r="J2">
-        <v>-1.8</v>
-      </c>
-      <c r="K2">
-        <v>0.9000000000000001</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>-1.8</v>
       </c>
-      <c r="I3">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>-0.4696221576284057</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>-3.3</v>
       </c>
-      <c r="G4">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="H4">
-        <v>-2.5</v>
-      </c>
-      <c r="I4">
-        <v>-1.969622157628406</v>
-      </c>
-      <c r="J4">
-        <v>-2.2</v>
-      </c>
-      <c r="K4">
-        <v>-2.2</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-2.668616218514021</v>
       </c>
-      <c r="I5">
-        <v>-2.668616218514021</v>
-      </c>
-      <c r="J5">
-        <v>-2.268616218514021</v>
-      </c>
-      <c r="K5">
-        <v>-2.268616218514021</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-1</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="I6">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="J6">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="K6">
-        <v>-1.4</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-0.7000000000000001</v>
       </c>
-      <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7">
-        <v>-1.8</v>
-      </c>
-      <c r="K7">
-        <v>-1.4</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.6696221576284057</v>
       </c>
-      <c r="G8">
-        <v>-0.6303778423715943</v>
-      </c>
-      <c r="H8">
-        <v>-0.4303778423715943</v>
-      </c>
-      <c r="I8">
-        <v>-0.0303778423715943</v>
-      </c>
-      <c r="J8">
-        <v>0.9696221576284058</v>
-      </c>
-      <c r="K8">
-        <v>0.1696221576284057</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
-      <c r="J9">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.7999999999999999</v>
       </c>
-      <c r="G10">
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="H10">
-        <v>-0.2</v>
-      </c>
-      <c r="I10">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="J10">
-        <v>-0.6000000000000002</v>
-      </c>
-      <c r="K10">
-        <v>0.9999999999999999</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="I11">
-        <v>1.8</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.4000000000000001</v>
       </c>
-      <c r="G12">
-        <v>1.2</v>
-      </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12">
-        <v>0.09999999999999989</v>
-      </c>
-      <c r="J12">
-        <v>0.6</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>0.4</v>
       </c>
-      <c r="I13">
-        <v>0.3</v>
-      </c>
-      <c r="J13">
-        <v>-0.5</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.1</v>
       </c>
-      <c r="G14">
-        <v>-0.2</v>
-      </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="K14">
-        <v>-0.3</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.4</v>
       </c>
-      <c r="I15">
-        <v>-0.8</v>
-      </c>
-      <c r="J15">
-        <v>-1.4</v>
-      </c>
-      <c r="K15">
-        <v>-0.6000000000000001</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>0.7000000000000001</v>
       </c>
-      <c r="G16">
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="H16">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="K16">
-        <v>-0.1999999999999999</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>-0.6000000000000001</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.9</v>
       </c>
-      <c r="K18">
-        <v>-0.3</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.6</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.3</v>
-      </c>
-      <c r="K19">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-0.3</v>
       </c>
-      <c r="K20">
-        <v>-0.5</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.4</v>
       </c>
-      <c r="I21">
-        <v>0.2</v>
-      </c>
-      <c r="J21">
-        <v>0.9</v>
-      </c>
-      <c r="K21">
-        <v>-0.09999999999999998</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>1.1</v>
       </c>
-      <c r="J23">
-        <v>1.3</v>
-      </c>
-      <c r="K23">
-        <v>3.3</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="I24">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="J24">
-        <v>2.7</v>
-      </c>
-      <c r="K24">
-        <v>-4</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-1.6</v>
       </c>
-      <c r="K26">
-        <v>-0.4</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.6</v>
       </c>
-      <c r="J27">
-        <v>0.6</v>
-      </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-0.4</v>
       </c>
-      <c r="I28">
-        <v>0.8</v>
-      </c>
-      <c r="J28">
-        <v>0.8</v>
-      </c>
-      <c r="K28">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.3</v>
       </c>
-      <c r="K30">
-        <v>1.9</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.8</v>
       </c>
-      <c r="J31">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-1</v>
       </c>
-      <c r="I32">
-        <v>0.5999999999999999</v>
-      </c>
-      <c r="J32">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="K32">
-        <v>-0.7000000000000001</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>3.8</v>
       </c>
-      <c r="K34">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.5</v>
       </c>
-      <c r="J35">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="K35">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.7</v>
       </c>
-      <c r="I36">
-        <v>-1.3</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>-0.8</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-0.2</v>
       </c>
-      <c r="K38">
-        <v>-0.5</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.2</v>
       </c>
-      <c r="J39">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="K39">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-1.4</v>
       </c>
-      <c r="I40">
-        <v>-1.7</v>
-      </c>
-      <c r="J40">
-        <v>-1.3</v>
-      </c>
-      <c r="K40">
-        <v>-0.4999999999999999</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42">
-        <v>-1</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>1.3</v>
       </c>
-      <c r="J43">
-        <v>-0.8</v>
-      </c>
-      <c r="K43">
-        <v>0.7999999999999999</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>1.9</v>
-      </c>
-      <c r="I44">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="J44">
-        <v>1.4</v>
       </c>
     </row>
     <row r="45" spans="1:11">
